--- a/all_DE/Kathrin Passig.xlsx
+++ b/all_DE/Kathrin Passig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Persons\Kathrin Passig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\all_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F17B0-FE03-4155-8096-C76B97EF1E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9295ABE2-2619-42FE-8372-167E325FDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>title</t>
   </si>
@@ -334,9 +334,6 @@
 Die Verbindung zum Publikum ist in Marbach auch durch das Literaturmuseum der Moderne gegeben.
 Auf weiteren Diskussionspanels wurde auch die Ausstellungsform erörtert, die zuletzt manchmal in die Kritik geraten war.
 Auf die Schlüsse, die Sandra Richter und die Museumsdirektorin Heike Gfrereis, die selbst mitdiskutierten und teils einlenkten, teils der Kritik widersprachen, daraus ziehen, kann man gespannt sein.</t>
-  </si>
-  <si>
-    <t>Flags</t>
   </si>
 </sst>
 </file>
@@ -376,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -399,31 +396,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -705,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +699,7 @@
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,11 +724,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -770,11 +750,8 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -799,11 +776,8 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -828,11 +802,8 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -857,11 +828,8 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -886,11 +854,8 @@
       <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -915,11 +880,8 @@
       <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -944,11 +906,8 @@
       <c r="I8" t="s">
         <v>50</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -973,11 +932,8 @@
       <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1002,11 +958,8 @@
       <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1028,11 +981,8 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1054,11 +1004,8 @@
       <c r="I12" t="s">
         <v>69</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1080,11 +1027,8 @@
       <c r="I13" t="s">
         <v>71</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1106,11 +1050,8 @@
       <c r="I14" t="s">
         <v>73</v>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1132,11 +1073,8 @@
       <c r="I15" t="s">
         <v>75</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1158,11 +1096,8 @@
       <c r="I16" t="s">
         <v>78</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1186,9 +1121,6 @@
       </c>
       <c r="I17" t="s">
         <v>83</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
